--- a/Answer/bin-debug/assets/answer.xlsx
+++ b/Answer/bin-debug/assets/answer.xlsx
@@ -1,18 +1,287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19395" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="qingshang" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="E:\workspace\Answer\bin-debug\assets\qingshang.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有能力克服各种困难:</t>
+  </si>
+  <si>
+    <t>如果我能到一个新的环境，我要把生活安排得:</t>
+  </si>
+  <si>
+    <t>一生中，我觉得自已能达到我所预想的目标:</t>
+  </si>
+  <si>
+    <t>不知为什么，有些人总是回避或冷淡我:</t>
+  </si>
+  <si>
+    <t>在大街上，我常常避开我不愿打招呼的人:</t>
+  </si>
+  <si>
+    <t>当我集中精力工作时，假使有人在旁边高谈阔论:</t>
+  </si>
+  <si>
+    <t>我不论到什么地方，都能清楚地辨别方向:</t>
+  </si>
+  <si>
+    <t>我热爱所学的专业和所从事的工作:</t>
+  </si>
+  <si>
+    <t>气候的变化不会影响我的情绪:</t>
+  </si>
+  <si>
+    <t>我从不因流言蜚语而生气:</t>
+  </si>
+  <si>
+    <t>我善于控制自己的面部表情:</t>
+  </si>
+  <si>
+    <t>在就寝时，我常常:</t>
+  </si>
+  <si>
+    <t>有人侵扰我时，我:</t>
+  </si>
+  <si>
+    <t>在和人争辨或工作出现失误后，我常常感到震颤，精疲力竭，而不能继续安心工作:</t>
+  </si>
+  <si>
+    <t>我常常被一些无谓的小事困扰:</t>
+  </si>
+  <si>
+    <t>我宁愿住在僻静的郊区，也不愿住在嘈杂的市区:</t>
+  </si>
+  <si>
+    <t>我被朋友、同事起过绰号、挖苦过:</t>
+  </si>
+  <si>
+    <t>有一种食物使我吃后呕吐:</t>
+  </si>
+  <si>
+    <t>除去看见的世界外，我的心中没有另外的世界:</t>
+  </si>
+  <si>
+    <t>我会想到若干年后有什么使自己极为不安的事:</t>
+  </si>
+  <si>
+    <t>我常常觉得家庭对自己不好，但是知道他们的确对我好:</t>
+  </si>
+  <si>
+    <t>每天我一回家就立刻把门关上:</t>
+  </si>
+  <si>
+    <t>我坐在小房间里把门关上，但我仍觉得心里不安:</t>
+  </si>
+  <si>
+    <t>当一件事需要我作决定时，我常觉得很难:</t>
+  </si>
+  <si>
+    <t>我常常用抛硬币、翻纸、抽签之类的游戏来预测凶吉:</t>
+  </si>
+  <si>
+    <t>为了工作我早出晚归，早晨起床我常常感到疲惫不堪:</t>
+  </si>
+  <si>
+    <t>在某种心境下,我会因为困惑陷入空想,将工作搁置下来:</t>
+  </si>
+  <si>
+    <t>我的神经脆弱,稍有刺激就会使我战栗:</t>
+  </si>
+  <si>
+    <t>睡梦中,我常常被噩梦惊醒:</t>
+  </si>
+  <si>
+    <t>工作中我愿意挑战艰巨的任务。</t>
+  </si>
+  <si>
+    <t>我常发现别人好的意愿。</t>
+  </si>
+  <si>
+    <t>能听取不同的意见，包括对自己的批评。</t>
+  </si>
+  <si>
+    <t>我时常勉励自己，对未来充满希望。</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>和从前相仿</t>
+  </si>
+  <si>
+    <t>不是的</t>
+  </si>
+  <si>
+    <t>从未如此</t>
+  </si>
+  <si>
+    <t>我仍能专心工作</t>
+  </si>
+  <si>
+    <t>极易入睡</t>
+  </si>
+  <si>
+    <t>不露声色</t>
+  </si>
+  <si>
+    <t>从来没有</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>从来没有想过</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>从不</t>
+  </si>
+  <si>
+    <t>不一定</t>
+  </si>
+  <si>
+    <t>偶尔如此</t>
+  </si>
+  <si>
+    <t>介于AC之间</t>
+  </si>
+  <si>
+    <t>不太确定</t>
+  </si>
+  <si>
+    <t>偶尔有过</t>
+  </si>
+  <si>
+    <t>记不清</t>
+  </si>
+  <si>
+    <t>偶尔想到过</t>
+  </si>
+  <si>
+    <t>说不清楚</t>
+  </si>
+  <si>
+    <t>不清楚</t>
+  </si>
+  <si>
+    <t>偶尔是</t>
+  </si>
+  <si>
+    <t>几乎不</t>
+  </si>
+  <si>
+    <t>和从前不一样</t>
+  </si>
+  <si>
+    <t>经常如此</t>
+  </si>
+  <si>
+    <t>我不能专心且感到愤怒</t>
+  </si>
+  <si>
+    <t>不易入睡</t>
+  </si>
+  <si>
+    <t>大声抗议，以泄己愤</t>
+  </si>
+  <si>
+    <t>这是常有的事</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>经常想到</t>
+  </si>
+  <si>
+    <t>一半时间</t>
+  </si>
+  <si>
+    <t>大多数时间</t>
+  </si>
+  <si>
+    <t>A:6;B:3</t>
+  </si>
+  <si>
+    <t>A:5;B:2</t>
+  </si>
+  <si>
+    <t>A:0;B:5</t>
+  </si>
+  <si>
+    <t>A:1;B:2;C:3;D:4;E:5</t>
+  </si>
+  <si>
+    <t>总是</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +325,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -67,6 +339,77 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="quest" form="unqualified">
+              <xsd:complexType>
+                <xsd:attribute name="id" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="type" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="title" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="A" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="B" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="C" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="D" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="answer" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="desc" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="E" form="unqualified" type="xsd:string"/>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="data_映射" RootElement="data" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J34" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:J34"/>
+  <tableColumns count="10">
+    <tableColumn id="1" uniqueName="id" name="id">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@id" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="type" name="type">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@type" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="title" name="title">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@title" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="A" name="A">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@A" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="B" name="B">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@B" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="C" name="C">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@C" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="D" name="D">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@D" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="answer" name="answer">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@answer" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="desc" name="desc">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@desc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="E" name="E">
+      <xmlColumnPr mapId="1" xpath="/data/quest/@E" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,15 +697,928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -376,7 +1632,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -390,6 +1645,5 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>